--- a/Code/Results/Cases/Case_4_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9864296277773199</v>
+        <v>1.018303130435461</v>
       </c>
       <c r="D2">
-        <v>1.006830386622832</v>
+        <v>1.023804267871262</v>
       </c>
       <c r="E2">
-        <v>0.9946998594335648</v>
+        <v>1.021917146376187</v>
       </c>
       <c r="F2">
-        <v>0.9951680461849042</v>
+        <v>1.029633233157551</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037451351970385</v>
+        <v>1.0284595787812</v>
       </c>
       <c r="J2">
-        <v>1.009023943370039</v>
+        <v>1.023512331108627</v>
       </c>
       <c r="K2">
-        <v>1.018195376476891</v>
+        <v>1.026634630031182</v>
       </c>
       <c r="L2">
-        <v>1.0062335308546</v>
+        <v>1.024753063117345</v>
       </c>
       <c r="M2">
-        <v>1.006695110809185</v>
+        <v>1.032446578063644</v>
       </c>
       <c r="N2">
-        <v>1.006943521685866</v>
+        <v>1.011913526660539</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9907247657685664</v>
+        <v>1.01921122564674</v>
       </c>
       <c r="D3">
-        <v>1.009779214531879</v>
+        <v>1.02444317509893</v>
       </c>
       <c r="E3">
-        <v>0.9984748715641376</v>
+        <v>1.022771896252297</v>
       </c>
       <c r="F3">
-        <v>1.000213153084306</v>
+        <v>1.030764481963415</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038377816729278</v>
+        <v>1.028593857882903</v>
       </c>
       <c r="J3">
-        <v>1.011471516824198</v>
+        <v>1.024056906201205</v>
       </c>
       <c r="K3">
-        <v>1.020288479101471</v>
+        <v>1.027080951879493</v>
       </c>
       <c r="L3">
-        <v>1.009127303959793</v>
+        <v>1.025414236260083</v>
       </c>
       <c r="M3">
-        <v>1.010843307303248</v>
+        <v>1.033385143979014</v>
       </c>
       <c r="N3">
-        <v>1.007772786400603</v>
+        <v>1.012096016374225</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9934483469982778</v>
+        <v>1.019799274027106</v>
       </c>
       <c r="D4">
-        <v>1.011651277784965</v>
+        <v>1.024856764041745</v>
       </c>
       <c r="E4">
-        <v>1.000874419319688</v>
+        <v>1.023325790464577</v>
       </c>
       <c r="F4">
-        <v>1.003412497251917</v>
+        <v>1.03149706019537</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038954487014733</v>
+        <v>1.028679462079102</v>
       </c>
       <c r="J4">
-        <v>1.013021142602737</v>
+        <v>1.024409134189412</v>
       </c>
       <c r="K4">
-        <v>1.021611086933874</v>
+        <v>1.027369239362746</v>
       </c>
       <c r="L4">
-        <v>1.010962302315022</v>
+        <v>1.02584223522266</v>
       </c>
       <c r="M4">
-        <v>1.01346991018398</v>
+        <v>1.033992465957712</v>
       </c>
       <c r="N4">
-        <v>1.008297533315721</v>
+        <v>1.012213983390953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9945804828082445</v>
+        <v>1.020046596388358</v>
       </c>
       <c r="D5">
-        <v>1.012429922410754</v>
+        <v>1.025030676937255</v>
       </c>
       <c r="E5">
-        <v>1.001873213248196</v>
+        <v>1.023558841172488</v>
       </c>
       <c r="F5">
-        <v>1.004742485499931</v>
+        <v>1.031805175737043</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039191565292431</v>
+        <v>1.028715142365951</v>
       </c>
       <c r="J5">
-        <v>1.01366468486604</v>
+        <v>1.024557174430062</v>
       </c>
       <c r="K5">
-        <v>1.022159711200131</v>
+        <v>1.027490311778803</v>
       </c>
       <c r="L5">
-        <v>1.011725048600354</v>
+        <v>1.026022207040038</v>
       </c>
       <c r="M5">
-        <v>1.014560835315918</v>
+        <v>1.034247785399401</v>
       </c>
       <c r="N5">
-        <v>1.008515383128589</v>
+        <v>1.012263548602043</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9947698325697524</v>
+        <v>1.020088129138458</v>
       </c>
       <c r="D6">
-        <v>1.012560176559563</v>
+        <v>1.025059879989469</v>
       </c>
       <c r="E6">
-        <v>1.002040340051821</v>
+        <v>1.023597982726738</v>
       </c>
       <c r="F6">
-        <v>1.004964932350537</v>
+        <v>1.031856917872875</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039231060854662</v>
+        <v>1.028721115184552</v>
       </c>
       <c r="J6">
-        <v>1.013772280955346</v>
+        <v>1.024582028878286</v>
       </c>
       <c r="K6">
-        <v>1.022251399474144</v>
+        <v>1.027510633092877</v>
       </c>
       <c r="L6">
-        <v>1.01185261560486</v>
+        <v>1.026052427477958</v>
       </c>
       <c r="M6">
-        <v>1.014743240119451</v>
+        <v>1.03429065472044</v>
       </c>
       <c r="N6">
-        <v>1.008551801878582</v>
+        <v>1.012271869159923</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9934635245720229</v>
+        <v>1.01980257834201</v>
       </c>
       <c r="D7">
-        <v>1.011661714635923</v>
+        <v>1.024859087718514</v>
       </c>
       <c r="E7">
-        <v>1.000887803998201</v>
+        <v>1.023328903740487</v>
       </c>
       <c r="F7">
-        <v>1.003430326866753</v>
+        <v>1.03150117670195</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0389576757642</v>
+        <v>1.028679940050555</v>
       </c>
       <c r="J7">
-        <v>1.013029772448486</v>
+        <v>1.024411112454469</v>
       </c>
       <c r="K7">
-        <v>1.021618446489933</v>
+        <v>1.027370857625287</v>
       </c>
       <c r="L7">
-        <v>1.010972527937709</v>
+        <v>1.025844639854853</v>
       </c>
       <c r="M7">
-        <v>1.01348453881507</v>
+        <v>1.033995877544063</v>
       </c>
       <c r="N7">
-        <v>1.008300454951063</v>
+        <v>1.012214645794666</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9878930035341267</v>
+        <v>1.018609931721371</v>
       </c>
       <c r="D8">
-        <v>1.007834572909349</v>
+        <v>1.024020152865427</v>
       </c>
       <c r="E8">
-        <v>0.9959847912814042</v>
+        <v>1.022205843817456</v>
       </c>
       <c r="F8">
-        <v>0.9968869226884742</v>
+        <v>1.030015422756554</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037769245731092</v>
+        <v>1.028505224473341</v>
       </c>
       <c r="J8">
-        <v>1.009858329589267</v>
+        <v>1.023696403049073</v>
       </c>
       <c r="K8">
-        <v>1.018909455508753</v>
+        <v>1.026785572170236</v>
       </c>
       <c r="L8">
-        <v>1.007219427226152</v>
+        <v>1.024976472680026</v>
       </c>
       <c r="M8">
-        <v>1.008109228367058</v>
+        <v>1.032763769096738</v>
       </c>
       <c r="N8">
-        <v>1.007226278036524</v>
+        <v>1.011975223731488</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9776285041645869</v>
+        <v>1.016511823561789</v>
       </c>
       <c r="D9">
-        <v>1.000802700431181</v>
+        <v>1.02254322973319</v>
       </c>
       <c r="E9">
-        <v>0.9869980035277416</v>
+        <v>1.020233157947122</v>
       </c>
       <c r="F9">
-        <v>0.9848293919796471</v>
+        <v>1.027401825068687</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03549519865504</v>
+        <v>1.028187545370362</v>
       </c>
       <c r="J9">
-        <v>1.003996767283384</v>
+        <v>1.022435893870489</v>
       </c>
       <c r="K9">
-        <v>1.013882767791762</v>
+        <v>1.025750339301474</v>
       </c>
       <c r="L9">
-        <v>1.000305611282726</v>
+        <v>1.023448041855595</v>
       </c>
       <c r="M9">
-        <v>0.9981734924479384</v>
+        <v>1.030592708694685</v>
       </c>
       <c r="N9">
-        <v>1.005238865194263</v>
+        <v>1.01155245799343</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9704508213787932</v>
+        <v>1.015115483142204</v>
       </c>
       <c r="D10">
-        <v>0.9959032899637459</v>
+        <v>1.021559627959082</v>
       </c>
       <c r="E10">
-        <v>0.9807487149960386</v>
+        <v>1.018922336916217</v>
       </c>
       <c r="F10">
-        <v>0.976394666118783</v>
+        <v>1.025662461010997</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033850530021758</v>
+        <v>1.027969193090127</v>
       </c>
       <c r="J10">
-        <v>0.9998879334023514</v>
+        <v>1.021594864753727</v>
       </c>
       <c r="K10">
-        <v>1.010346907836124</v>
+        <v>1.02505762629723</v>
       </c>
       <c r="L10">
-        <v>0.9954744799216708</v>
+        <v>1.022430082567715</v>
       </c>
       <c r="M10">
-        <v>0.9912036154064696</v>
+        <v>1.029145405601394</v>
       </c>
       <c r="N10">
-        <v>1.003844565467805</v>
+        <v>1.011270047120436</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9672553940416736</v>
+        <v>1.014511432030812</v>
       </c>
       <c r="D11">
-        <v>0.9937273088118816</v>
+        <v>1.021133974854617</v>
       </c>
       <c r="E11">
-        <v>0.9779755070202615</v>
+        <v>1.018355772938952</v>
       </c>
       <c r="F11">
-        <v>0.9726381117327841</v>
+        <v>1.024910019240645</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033105987725852</v>
+        <v>1.027873092521291</v>
       </c>
       <c r="J11">
-        <v>0.9980568125908955</v>
+        <v>1.021230536542847</v>
       </c>
       <c r="K11">
-        <v>1.008768496398764</v>
+        <v>1.024757078523949</v>
       </c>
       <c r="L11">
-        <v>0.9933250786215601</v>
+        <v>1.021989543170237</v>
       </c>
       <c r="M11">
-        <v>0.9880951626488903</v>
+        <v>1.028518728035831</v>
       </c>
       <c r="N11">
-        <v>1.003222968761234</v>
+        <v>1.01114762978314</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9660545927326958</v>
+        <v>1.01428714753554</v>
       </c>
       <c r="D12">
-        <v>0.9929104672839355</v>
+        <v>1.0209759076864</v>
       </c>
       <c r="E12">
-        <v>0.9769347648940327</v>
+        <v>1.018145481839279</v>
       </c>
       <c r="F12">
-        <v>0.9712261507967906</v>
+        <v>1.024630636273099</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032824392421434</v>
+        <v>1.027837163668397</v>
       </c>
       <c r="J12">
-        <v>0.9973684540051353</v>
+        <v>1.021095186021086</v>
       </c>
       <c r="K12">
-        <v>1.008174763736346</v>
+        <v>1.024645352663545</v>
       </c>
       <c r="L12">
-        <v>0.9925176135664385</v>
+        <v>1.021825944794701</v>
       </c>
       <c r="M12">
-        <v>0.9869261844191746</v>
+        <v>1.028285954446697</v>
       </c>
       <c r="N12">
-        <v>1.002989268558355</v>
+        <v>1.011102139093072</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9663128091317695</v>
+        <v>1.014335253371762</v>
       </c>
       <c r="D13">
-        <v>0.9930860777311362</v>
+        <v>1.021009811828483</v>
       </c>
       <c r="E13">
-        <v>0.9771584987514931</v>
+        <v>1.018190582915729</v>
       </c>
       <c r="F13">
-        <v>0.971529788779697</v>
+        <v>1.024690560006127</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032885026515495</v>
+        <v>1.027844881058011</v>
       </c>
       <c r="J13">
-        <v>0.9975164868547377</v>
+        <v>1.02112422018659</v>
       </c>
       <c r="K13">
-        <v>1.008302463569793</v>
+        <v>1.02466932225482</v>
       </c>
       <c r="L13">
-        <v>0.9926912360088391</v>
+        <v>1.021861035485991</v>
       </c>
       <c r="M13">
-        <v>0.987177597078413</v>
+        <v>1.02833588506122</v>
       </c>
       <c r="N13">
-        <v>1.003039527441955</v>
+        <v>1.011111897875003</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9671564229897648</v>
+        <v>1.014492890825284</v>
       </c>
       <c r="D14">
-        <v>0.9936599659614974</v>
+        <v>1.021120908162759</v>
       </c>
       <c r="E14">
-        <v>0.9778896995028138</v>
+        <v>1.018338387021923</v>
       </c>
       <c r="F14">
-        <v>0.97252174314482</v>
+        <v>1.024886923165775</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03308281481096</v>
+        <v>1.027870127378089</v>
       </c>
       <c r="J14">
-        <v>0.998000082267226</v>
+        <v>1.021219348887073</v>
       </c>
       <c r="K14">
-        <v>1.008719572012711</v>
+        <v>1.024747845040697</v>
       </c>
       <c r="L14">
-        <v>0.9932585212527206</v>
+        <v>1.021976019305477</v>
       </c>
       <c r="M14">
-        <v>0.9879988321569846</v>
+        <v>1.028499486848849</v>
       </c>
       <c r="N14">
-        <v>1.003203709161016</v>
+        <v>1.011143869903202</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9676743394251198</v>
+        <v>1.014590028013771</v>
       </c>
       <c r="D15">
-        <v>0.9940124074941209</v>
+        <v>1.021189363534936</v>
       </c>
       <c r="E15">
-        <v>0.9783387882223447</v>
+        <v>1.018429474716133</v>
       </c>
       <c r="F15">
-        <v>0.9731306885914837</v>
+        <v>1.025007923224575</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033204005590164</v>
+        <v>1.02788565163092</v>
       </c>
       <c r="J15">
-        <v>0.9982969427790048</v>
+        <v>1.021277957821253</v>
       </c>
       <c r="K15">
-        <v>1.008975570264008</v>
+        <v>1.024796213748836</v>
       </c>
       <c r="L15">
-        <v>0.9936068271782116</v>
+        <v>1.022046869638936</v>
       </c>
       <c r="M15">
-        <v>0.9885028952471503</v>
+        <v>1.028600287629471</v>
       </c>
       <c r="N15">
-        <v>1.003304490375432</v>
+        <v>1.01116356635869</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9706609870666192</v>
+        <v>1.015155584178091</v>
       </c>
       <c r="D16">
-        <v>0.9960465210811229</v>
+        <v>1.021587882597978</v>
       </c>
       <c r="E16">
-        <v>0.9809313012790876</v>
+        <v>1.018959959709856</v>
       </c>
       <c r="F16">
-        <v>0.9766417004990412</v>
+        <v>1.025712413150844</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033899245942303</v>
+        <v>1.027975538294315</v>
       </c>
       <c r="J16">
-        <v>1.000008331179665</v>
+        <v>1.021619040775943</v>
       </c>
       <c r="K16">
-        <v>1.010450636743795</v>
+        <v>1.025077560128975</v>
       </c>
       <c r="L16">
-        <v>0.9956158801210414</v>
+        <v>1.02245932493287</v>
       </c>
       <c r="M16">
-        <v>0.991407942950439</v>
+        <v>1.029186996446258</v>
       </c>
       <c r="N16">
-        <v>1.003885431797974</v>
+        <v>1.01127816881183</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9725105150464061</v>
+        <v>1.015510496739644</v>
       </c>
       <c r="D17">
-        <v>0.9973076028093483</v>
+        <v>1.021837931749978</v>
       </c>
       <c r="E17">
-        <v>0.9825391419865396</v>
+        <v>1.019292995597169</v>
       </c>
       <c r="F17">
-        <v>0.9788155061316093</v>
+        <v>1.026154512378926</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034326561885061</v>
+        <v>1.028031506458738</v>
       </c>
       <c r="J17">
-        <v>1.001067658827797</v>
+        <v>1.021832951614224</v>
       </c>
       <c r="K17">
-        <v>1.011363004763547</v>
+        <v>1.025253881672524</v>
       </c>
       <c r="L17">
-        <v>0.9968604100800404</v>
+        <v>1.022718113162556</v>
       </c>
       <c r="M17">
-        <v>0.9932054596793001</v>
+        <v>1.029555027351907</v>
       </c>
       <c r="N17">
-        <v>1.004244972332584</v>
+        <v>1.011350020909259</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9735809290914835</v>
+        <v>1.015717566511845</v>
       </c>
       <c r="D18">
-        <v>0.998037939760527</v>
+        <v>1.021983805506363</v>
       </c>
       <c r="E18">
-        <v>0.9834705210918148</v>
+        <v>1.019487349111607</v>
       </c>
       <c r="F18">
-        <v>0.9800734578350767</v>
+        <v>1.026412450296761</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034572695204619</v>
+        <v>1.028064001910346</v>
       </c>
       <c r="J18">
-        <v>1.001680560330233</v>
+        <v>1.021957706980546</v>
       </c>
       <c r="K18">
-        <v>1.011890627084298</v>
+        <v>1.025356669243114</v>
       </c>
       <c r="L18">
-        <v>0.997580808055783</v>
+        <v>1.022869083406926</v>
       </c>
       <c r="M18">
-        <v>0.9942452486978121</v>
+        <v>1.029769694909738</v>
       </c>
       <c r="N18">
-        <v>1.004452972597065</v>
+        <v>1.011391918306038</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9739445121086685</v>
+        <v>1.015788181304494</v>
       </c>
       <c r="D19">
-        <v>0.9982860901806815</v>
+        <v>1.022033548771161</v>
       </c>
       <c r="E19">
-        <v>0.9837870198196295</v>
+        <v>1.019553635446218</v>
       </c>
       <c r="F19">
-        <v>0.980500719538834</v>
+        <v>1.026500412148148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034656097365004</v>
+        <v>1.02807505659225</v>
       </c>
       <c r="J19">
-        <v>1.001888709556262</v>
+        <v>1.022000242733076</v>
       </c>
       <c r="K19">
-        <v>1.012069770994095</v>
+        <v>1.025391707317365</v>
       </c>
       <c r="L19">
-        <v>0.99782552265851</v>
+        <v>1.022920564306883</v>
       </c>
       <c r="M19">
-        <v>0.9945983414476153</v>
+        <v>1.029842891222892</v>
       </c>
       <c r="N19">
-        <v>1.004523608414846</v>
+        <v>1.011406202068838</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9723129506094426</v>
+        <v>1.015472412256843</v>
       </c>
       <c r="D20">
-        <v>0.9971728444903001</v>
+        <v>1.021811101317516</v>
       </c>
       <c r="E20">
-        <v>0.9823673066082808</v>
+        <v>1.01925725371677</v>
       </c>
       <c r="F20">
-        <v>0.9785833175203532</v>
+        <v>1.026107072186515</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034281038114866</v>
+        <v>1.028025517099016</v>
       </c>
       <c r="J20">
-        <v>1.000954521501793</v>
+        <v>1.021810002572841</v>
       </c>
       <c r="K20">
-        <v>1.011265588853015</v>
+        <v>1.025234970012026</v>
       </c>
       <c r="L20">
-        <v>0.9967274573810979</v>
+        <v>1.022690345202327</v>
       </c>
       <c r="M20">
-        <v>0.9930135055326678</v>
+        <v>1.029515540976652</v>
       </c>
       <c r="N20">
-        <v>1.00420657518911</v>
+        <v>1.01134231317212</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9669083890259051</v>
+        <v>1.014446468116473</v>
       </c>
       <c r="D21">
-        <v>0.9934912104974025</v>
+        <v>1.021088191964375</v>
       </c>
       <c r="E21">
-        <v>0.9776746776795541</v>
+        <v>1.018294858080787</v>
       </c>
       <c r="F21">
-        <v>0.9722301037569326</v>
+        <v>1.024829096143763</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033024711644011</v>
+        <v>1.027862699389612</v>
       </c>
       <c r="J21">
-        <v>0.997857905077995</v>
+        <v>1.021191336478893</v>
       </c>
       <c r="K21">
-        <v>1.008596952087782</v>
+        <v>1.024724724488154</v>
       </c>
       <c r="L21">
-        <v>0.9930917243138767</v>
+        <v>1.021942158391663</v>
       </c>
       <c r="M21">
-        <v>0.9877574017987945</v>
+        <v>1.028451310133043</v>
       </c>
       <c r="N21">
-        <v>1.003155440429308</v>
+        <v>1.011134455471813</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9634296308313557</v>
+        <v>1.013801919980789</v>
       </c>
       <c r="D22">
-        <v>0.9911265329813302</v>
+        <v>1.020633898474192</v>
       </c>
       <c r="E22">
-        <v>0.9746623222886113</v>
+        <v>1.017690664845527</v>
       </c>
       <c r="F22">
-        <v>0.9681389680555451</v>
+        <v>1.024026203361818</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032205559503263</v>
+        <v>1.027758982609574</v>
       </c>
       <c r="J22">
-        <v>0.9958632895125316</v>
+        <v>1.020802225015253</v>
       </c>
       <c r="K22">
-        <v>1.006875848588443</v>
+        <v>1.024403398177786</v>
       </c>
       <c r="L22">
-        <v>0.9907530073416527</v>
+        <v>1.021471961501943</v>
       </c>
       <c r="M22">
-        <v>0.9843691705117011</v>
+        <v>1.027782199740119</v>
       </c>
       <c r="N22">
-        <v>1.002478213131442</v>
+        <v>1.011003654770887</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9652816965823132</v>
+        <v>1.01414355912626</v>
       </c>
       <c r="D23">
-        <v>0.9923849617134687</v>
+        <v>1.020874705959711</v>
       </c>
       <c r="E23">
-        <v>0.9762652910874896</v>
+        <v>1.018010873102266</v>
       </c>
       <c r="F23">
-        <v>0.9703172493754278</v>
+        <v>1.02445177307756</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032642641143714</v>
+        <v>1.027814092354441</v>
       </c>
       <c r="J23">
-        <v>0.996925327569166</v>
+        <v>1.021008512567557</v>
       </c>
       <c r="K23">
-        <v>1.007792449990302</v>
+        <v>1.024573787829042</v>
       </c>
       <c r="L23">
-        <v>0.9919979658000539</v>
+        <v>1.021721200799067</v>
       </c>
       <c r="M23">
-        <v>0.9861735247514226</v>
+        <v>1.028136906437324</v>
       </c>
       <c r="N23">
-        <v>1.002838818175418</v>
+        <v>1.011073005234716</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9724022473305769</v>
+        <v>1.015489620824526</v>
       </c>
       <c r="D24">
-        <v>0.9972337521098856</v>
+        <v>1.021823224760051</v>
       </c>
       <c r="E24">
-        <v>0.9824449715030962</v>
+        <v>1.019273403627275</v>
       </c>
       <c r="F24">
-        <v>0.9786882643695384</v>
+        <v>1.026128508154348</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034301617954033</v>
+        <v>1.028028223895855</v>
       </c>
       <c r="J24">
-        <v>1.001005658770497</v>
+        <v>1.021820372303858</v>
       </c>
       <c r="K24">
-        <v>1.011309620936258</v>
+        <v>1.02524351555604</v>
       </c>
       <c r="L24">
-        <v>0.9967875499945243</v>
+        <v>1.022702892275925</v>
       </c>
       <c r="M24">
-        <v>0.9931002680918652</v>
+        <v>1.029533383165667</v>
       </c>
       <c r="N24">
-        <v>1.004223930491787</v>
+        <v>1.011345796006077</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9803385530722722</v>
+        <v>1.017053816016172</v>
       </c>
       <c r="D25">
-        <v>1.002656505613019</v>
+        <v>1.022924877016122</v>
       </c>
       <c r="E25">
-        <v>0.9893648844098847</v>
+        <v>1.020742391562212</v>
       </c>
       <c r="F25">
-        <v>0.9880131682661226</v>
+        <v>1.028076969013483</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036105171686824</v>
+        <v>1.028270832432268</v>
       </c>
       <c r="J25">
-        <v>1.005546216947159</v>
+        <v>1.022761890914793</v>
       </c>
       <c r="K25">
-        <v>1.015213722252553</v>
+        <v>1.026018426612706</v>
       </c>
       <c r="L25">
-        <v>1.002130571306177</v>
+        <v>1.023843006918991</v>
       </c>
       <c r="M25">
-        <v>1.000800458807803</v>
+        <v>1.031153969048173</v>
       </c>
       <c r="N25">
-        <v>1.005764437763566</v>
+        <v>1.011661854495625</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018303130435461</v>
+        <v>0.9864296277773199</v>
       </c>
       <c r="D2">
-        <v>1.023804267871262</v>
+        <v>1.006830386622832</v>
       </c>
       <c r="E2">
-        <v>1.021917146376187</v>
+        <v>0.9946998594335645</v>
       </c>
       <c r="F2">
-        <v>1.029633233157551</v>
+        <v>0.9951680461849041</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0284595787812</v>
+        <v>1.037451351970385</v>
       </c>
       <c r="J2">
-        <v>1.023512331108627</v>
+        <v>1.009023943370039</v>
       </c>
       <c r="K2">
-        <v>1.026634630031182</v>
+        <v>1.018195376476891</v>
       </c>
       <c r="L2">
-        <v>1.024753063117345</v>
+        <v>1.0062335308546</v>
       </c>
       <c r="M2">
-        <v>1.032446578063644</v>
+        <v>1.006695110809184</v>
       </c>
       <c r="N2">
-        <v>1.011913526660539</v>
+        <v>1.006943521685866</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01921122564674</v>
+        <v>0.9907247657685663</v>
       </c>
       <c r="D3">
-        <v>1.02444317509893</v>
+        <v>1.009779214531879</v>
       </c>
       <c r="E3">
-        <v>1.022771896252297</v>
+        <v>0.9984748715641368</v>
       </c>
       <c r="F3">
-        <v>1.030764481963415</v>
+        <v>1.000213153084306</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028593857882903</v>
+        <v>1.038377816729277</v>
       </c>
       <c r="J3">
-        <v>1.024056906201205</v>
+        <v>1.011471516824198</v>
       </c>
       <c r="K3">
-        <v>1.027080951879493</v>
+        <v>1.020288479101471</v>
       </c>
       <c r="L3">
-        <v>1.025414236260083</v>
+        <v>1.009127303959792</v>
       </c>
       <c r="M3">
-        <v>1.033385143979014</v>
+        <v>1.010843307303247</v>
       </c>
       <c r="N3">
-        <v>1.012096016374225</v>
+        <v>1.007772786400603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019799274027106</v>
+        <v>0.9934483469982776</v>
       </c>
       <c r="D4">
-        <v>1.024856764041745</v>
+        <v>1.011651277784965</v>
       </c>
       <c r="E4">
-        <v>1.023325790464577</v>
+        <v>1.000874419319688</v>
       </c>
       <c r="F4">
-        <v>1.03149706019537</v>
+        <v>1.003412497251917</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028679462079102</v>
+        <v>1.038954487014733</v>
       </c>
       <c r="J4">
-        <v>1.024409134189412</v>
+        <v>1.013021142602737</v>
       </c>
       <c r="K4">
-        <v>1.027369239362746</v>
+        <v>1.021611086933873</v>
       </c>
       <c r="L4">
-        <v>1.02584223522266</v>
+        <v>1.010962302315022</v>
       </c>
       <c r="M4">
-        <v>1.033992465957712</v>
+        <v>1.013469910183979</v>
       </c>
       <c r="N4">
-        <v>1.012213983390953</v>
+        <v>1.008297533315721</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020046596388358</v>
+        <v>0.994580482808245</v>
       </c>
       <c r="D5">
-        <v>1.025030676937255</v>
+        <v>1.012429922410754</v>
       </c>
       <c r="E5">
-        <v>1.023558841172488</v>
+        <v>1.001873213248197</v>
       </c>
       <c r="F5">
-        <v>1.031805175737043</v>
+        <v>1.004742485499931</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028715142365951</v>
+        <v>1.039191565292431</v>
       </c>
       <c r="J5">
-        <v>1.024557174430062</v>
+        <v>1.01366468486604</v>
       </c>
       <c r="K5">
-        <v>1.027490311778803</v>
+        <v>1.022159711200132</v>
       </c>
       <c r="L5">
-        <v>1.026022207040038</v>
+        <v>1.011725048600354</v>
       </c>
       <c r="M5">
-        <v>1.034247785399401</v>
+        <v>1.014560835315918</v>
       </c>
       <c r="N5">
-        <v>1.012263548602043</v>
+        <v>1.00851538312859</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020088129138458</v>
+        <v>0.9947698325697519</v>
       </c>
       <c r="D6">
-        <v>1.025059879989469</v>
+        <v>1.012560176559563</v>
       </c>
       <c r="E6">
-        <v>1.023597982726738</v>
+        <v>1.002040340051821</v>
       </c>
       <c r="F6">
-        <v>1.031856917872875</v>
+        <v>1.004964932350537</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028721115184552</v>
+        <v>1.039231060854662</v>
       </c>
       <c r="J6">
-        <v>1.024582028878286</v>
+        <v>1.013772280955346</v>
       </c>
       <c r="K6">
-        <v>1.027510633092877</v>
+        <v>1.022251399474144</v>
       </c>
       <c r="L6">
-        <v>1.026052427477958</v>
+        <v>1.01185261560486</v>
       </c>
       <c r="M6">
-        <v>1.03429065472044</v>
+        <v>1.01474324011945</v>
       </c>
       <c r="N6">
-        <v>1.012271869159923</v>
+        <v>1.008551801878582</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01980257834201</v>
+        <v>0.993463524572023</v>
       </c>
       <c r="D7">
-        <v>1.024859087718514</v>
+        <v>1.011661714635923</v>
       </c>
       <c r="E7">
-        <v>1.023328903740487</v>
+        <v>1.000887803998202</v>
       </c>
       <c r="F7">
-        <v>1.03150117670195</v>
+        <v>1.003430326866753</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028679940050555</v>
+        <v>1.0389576757642</v>
       </c>
       <c r="J7">
-        <v>1.024411112454469</v>
+        <v>1.013029772448486</v>
       </c>
       <c r="K7">
-        <v>1.027370857625287</v>
+        <v>1.021618446489933</v>
       </c>
       <c r="L7">
-        <v>1.025844639854853</v>
+        <v>1.010972527937709</v>
       </c>
       <c r="M7">
-        <v>1.033995877544063</v>
+        <v>1.01348453881507</v>
       </c>
       <c r="N7">
-        <v>1.012214645794666</v>
+        <v>1.008300454951063</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018609931721371</v>
+        <v>0.9878930035341266</v>
       </c>
       <c r="D8">
-        <v>1.024020152865427</v>
+        <v>1.007834572909349</v>
       </c>
       <c r="E8">
-        <v>1.022205843817456</v>
+        <v>0.995984791281404</v>
       </c>
       <c r="F8">
-        <v>1.030015422756554</v>
+        <v>0.996886922688474</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028505224473341</v>
+        <v>1.037769245731092</v>
       </c>
       <c r="J8">
-        <v>1.023696403049073</v>
+        <v>1.009858329589267</v>
       </c>
       <c r="K8">
-        <v>1.026785572170236</v>
+        <v>1.018909455508753</v>
       </c>
       <c r="L8">
-        <v>1.024976472680026</v>
+        <v>1.007219427226152</v>
       </c>
       <c r="M8">
-        <v>1.032763769096738</v>
+        <v>1.008109228367058</v>
       </c>
       <c r="N8">
-        <v>1.011975223731488</v>
+        <v>1.007226278036524</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016511823561789</v>
+        <v>0.9776285041645872</v>
       </c>
       <c r="D9">
-        <v>1.02254322973319</v>
+        <v>1.000802700431181</v>
       </c>
       <c r="E9">
-        <v>1.020233157947122</v>
+        <v>0.9869980035277416</v>
       </c>
       <c r="F9">
-        <v>1.027401825068687</v>
+        <v>0.9848293919796468</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028187545370362</v>
+        <v>1.03549519865504</v>
       </c>
       <c r="J9">
-        <v>1.022435893870489</v>
+        <v>1.003996767283384</v>
       </c>
       <c r="K9">
-        <v>1.025750339301474</v>
+        <v>1.013882767791762</v>
       </c>
       <c r="L9">
-        <v>1.023448041855595</v>
+        <v>1.000305611282726</v>
       </c>
       <c r="M9">
-        <v>1.030592708694685</v>
+        <v>0.998173492447938</v>
       </c>
       <c r="N9">
-        <v>1.01155245799343</v>
+        <v>1.005238865194263</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015115483142204</v>
+        <v>0.9704508213787935</v>
       </c>
       <c r="D10">
-        <v>1.021559627959082</v>
+        <v>0.9959032899637461</v>
       </c>
       <c r="E10">
-        <v>1.018922336916217</v>
+        <v>0.9807487149960389</v>
       </c>
       <c r="F10">
-        <v>1.025662461010997</v>
+        <v>0.9763946661187833</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027969193090127</v>
+        <v>1.033850530021758</v>
       </c>
       <c r="J10">
-        <v>1.021594864753727</v>
+        <v>0.9998879334023517</v>
       </c>
       <c r="K10">
-        <v>1.02505762629723</v>
+        <v>1.010346907836124</v>
       </c>
       <c r="L10">
-        <v>1.022430082567715</v>
+        <v>0.9954744799216712</v>
       </c>
       <c r="M10">
-        <v>1.029145405601394</v>
+        <v>0.9912036154064701</v>
       </c>
       <c r="N10">
-        <v>1.011270047120436</v>
+        <v>1.003844565467805</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014511432030812</v>
+        <v>0.9672553940416737</v>
       </c>
       <c r="D11">
-        <v>1.021133974854617</v>
+        <v>0.9937273088118816</v>
       </c>
       <c r="E11">
-        <v>1.018355772938952</v>
+        <v>0.9779755070202618</v>
       </c>
       <c r="F11">
-        <v>1.024910019240645</v>
+        <v>0.9726381117327844</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027873092521291</v>
+        <v>1.033105987725852</v>
       </c>
       <c r="J11">
-        <v>1.021230536542847</v>
+        <v>0.9980568125908956</v>
       </c>
       <c r="K11">
-        <v>1.024757078523949</v>
+        <v>1.008768496398764</v>
       </c>
       <c r="L11">
-        <v>1.021989543170237</v>
+        <v>0.9933250786215603</v>
       </c>
       <c r="M11">
-        <v>1.028518728035831</v>
+        <v>0.9880951626488903</v>
       </c>
       <c r="N11">
-        <v>1.01114762978314</v>
+        <v>1.003222968761234</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01428714753554</v>
+        <v>0.9660545927326961</v>
       </c>
       <c r="D12">
-        <v>1.0209759076864</v>
+        <v>0.9929104672839358</v>
       </c>
       <c r="E12">
-        <v>1.018145481839279</v>
+        <v>0.9769347648940332</v>
       </c>
       <c r="F12">
-        <v>1.024630636273099</v>
+        <v>0.9712261507967909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027837163668397</v>
+        <v>1.032824392421434</v>
       </c>
       <c r="J12">
-        <v>1.021095186021086</v>
+        <v>0.9973684540051356</v>
       </c>
       <c r="K12">
-        <v>1.024645352663545</v>
+        <v>1.008174763736347</v>
       </c>
       <c r="L12">
-        <v>1.021825944794701</v>
+        <v>0.9925176135664391</v>
       </c>
       <c r="M12">
-        <v>1.028285954446697</v>
+        <v>0.9869261844191748</v>
       </c>
       <c r="N12">
-        <v>1.011102139093072</v>
+        <v>1.002989268558355</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014335253371762</v>
+        <v>0.9663128091317699</v>
       </c>
       <c r="D13">
-        <v>1.021009811828483</v>
+        <v>0.9930860777311364</v>
       </c>
       <c r="E13">
-        <v>1.018190582915729</v>
+        <v>0.9771584987514934</v>
       </c>
       <c r="F13">
-        <v>1.024690560006127</v>
+        <v>0.9715297887796976</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027844881058011</v>
+        <v>1.032885026515495</v>
       </c>
       <c r="J13">
-        <v>1.02112422018659</v>
+        <v>0.9975164868547381</v>
       </c>
       <c r="K13">
-        <v>1.02466932225482</v>
+        <v>1.008302463569793</v>
       </c>
       <c r="L13">
-        <v>1.021861035485991</v>
+        <v>0.9926912360088395</v>
       </c>
       <c r="M13">
-        <v>1.02833588506122</v>
+        <v>0.9871775970784137</v>
       </c>
       <c r="N13">
-        <v>1.011111897875003</v>
+        <v>1.003039527441955</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014492890825284</v>
+        <v>0.9671564229897641</v>
       </c>
       <c r="D14">
-        <v>1.021120908162759</v>
+        <v>0.9936599659614967</v>
       </c>
       <c r="E14">
-        <v>1.018338387021923</v>
+        <v>0.9778896995028128</v>
       </c>
       <c r="F14">
-        <v>1.024886923165775</v>
+        <v>0.9725217431448195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027870127378089</v>
+        <v>1.03308281481096</v>
       </c>
       <c r="J14">
-        <v>1.021219348887073</v>
+        <v>0.9980000822672253</v>
       </c>
       <c r="K14">
-        <v>1.024747845040697</v>
+        <v>1.00871957201271</v>
       </c>
       <c r="L14">
-        <v>1.021976019305477</v>
+        <v>0.9932585212527195</v>
       </c>
       <c r="M14">
-        <v>1.028499486848849</v>
+        <v>0.987998832156984</v>
       </c>
       <c r="N14">
-        <v>1.011143869903202</v>
+        <v>1.003203709161015</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014590028013771</v>
+        <v>0.96767433942512</v>
       </c>
       <c r="D15">
-        <v>1.021189363534936</v>
+        <v>0.9940124074941215</v>
       </c>
       <c r="E15">
-        <v>1.018429474716133</v>
+        <v>0.978338788222345</v>
       </c>
       <c r="F15">
-        <v>1.025007923224575</v>
+        <v>0.9731306885914841</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02788565163092</v>
+        <v>1.033204005590164</v>
       </c>
       <c r="J15">
-        <v>1.021277957821253</v>
+        <v>0.9982969427790053</v>
       </c>
       <c r="K15">
-        <v>1.024796213748836</v>
+        <v>1.008975570264009</v>
       </c>
       <c r="L15">
-        <v>1.022046869638936</v>
+        <v>0.9936068271782118</v>
       </c>
       <c r="M15">
-        <v>1.028600287629471</v>
+        <v>0.9885028952471506</v>
       </c>
       <c r="N15">
-        <v>1.01116356635869</v>
+        <v>1.003304490375432</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015155584178091</v>
+        <v>0.9706609870666193</v>
       </c>
       <c r="D16">
-        <v>1.021587882597978</v>
+        <v>0.9960465210811231</v>
       </c>
       <c r="E16">
-        <v>1.018959959709856</v>
+        <v>0.9809313012790877</v>
       </c>
       <c r="F16">
-        <v>1.025712413150844</v>
+        <v>0.9766417004990416</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027975538294315</v>
+        <v>1.033899245942304</v>
       </c>
       <c r="J16">
-        <v>1.021619040775943</v>
+        <v>1.000008331179665</v>
       </c>
       <c r="K16">
-        <v>1.025077560128975</v>
+        <v>1.010450636743795</v>
       </c>
       <c r="L16">
-        <v>1.02245932493287</v>
+        <v>0.9956158801210414</v>
       </c>
       <c r="M16">
-        <v>1.029186996446258</v>
+        <v>0.9914079429504393</v>
       </c>
       <c r="N16">
-        <v>1.01127816881183</v>
+        <v>1.003885431797974</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015510496739644</v>
+        <v>0.9725105150464057</v>
       </c>
       <c r="D17">
-        <v>1.021837931749978</v>
+        <v>0.9973076028093482</v>
       </c>
       <c r="E17">
-        <v>1.019292995597169</v>
+        <v>0.9825391419865389</v>
       </c>
       <c r="F17">
-        <v>1.026154512378926</v>
+        <v>0.9788155061316085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028031506458738</v>
+        <v>1.034326561885061</v>
       </c>
       <c r="J17">
-        <v>1.021832951614224</v>
+        <v>1.001067658827797</v>
       </c>
       <c r="K17">
-        <v>1.025253881672524</v>
+        <v>1.011363004763546</v>
       </c>
       <c r="L17">
-        <v>1.022718113162556</v>
+        <v>0.9968604100800398</v>
       </c>
       <c r="M17">
-        <v>1.029555027351907</v>
+        <v>0.9932054596792995</v>
       </c>
       <c r="N17">
-        <v>1.011350020909259</v>
+        <v>1.004244972332584</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015717566511845</v>
+        <v>0.9735809290914832</v>
       </c>
       <c r="D18">
-        <v>1.021983805506363</v>
+        <v>0.9980379397605266</v>
       </c>
       <c r="E18">
-        <v>1.019487349111607</v>
+        <v>0.9834705210918142</v>
       </c>
       <c r="F18">
-        <v>1.026412450296761</v>
+        <v>0.9800734578350768</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028064001910346</v>
+        <v>1.034572695204619</v>
       </c>
       <c r="J18">
-        <v>1.021957706980546</v>
+        <v>1.001680560330232</v>
       </c>
       <c r="K18">
-        <v>1.025356669243114</v>
+        <v>1.011890627084298</v>
       </c>
       <c r="L18">
-        <v>1.022869083406926</v>
+        <v>0.9975808080557826</v>
       </c>
       <c r="M18">
-        <v>1.029769694909738</v>
+        <v>0.9942452486978121</v>
       </c>
       <c r="N18">
-        <v>1.011391918306038</v>
+        <v>1.004452972597065</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015788181304494</v>
+        <v>0.9739445121086684</v>
       </c>
       <c r="D19">
-        <v>1.022033548771161</v>
+        <v>0.9982860901806815</v>
       </c>
       <c r="E19">
-        <v>1.019553635446218</v>
+        <v>0.9837870198196297</v>
       </c>
       <c r="F19">
-        <v>1.026500412148148</v>
+        <v>0.9805007195388338</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02807505659225</v>
+        <v>1.034656097365004</v>
       </c>
       <c r="J19">
-        <v>1.022000242733076</v>
+        <v>1.001888709556262</v>
       </c>
       <c r="K19">
-        <v>1.025391707317365</v>
+        <v>1.012069770994095</v>
       </c>
       <c r="L19">
-        <v>1.022920564306883</v>
+        <v>0.9978255226585101</v>
       </c>
       <c r="M19">
-        <v>1.029842891222892</v>
+        <v>0.9945983414476152</v>
       </c>
       <c r="N19">
-        <v>1.011406202068838</v>
+        <v>1.004523608414846</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.015472412256843</v>
+        <v>0.9723129506094417</v>
       </c>
       <c r="D20">
-        <v>1.021811101317516</v>
+        <v>0.9971728444902991</v>
       </c>
       <c r="E20">
-        <v>1.01925725371677</v>
+        <v>0.9823673066082796</v>
       </c>
       <c r="F20">
-        <v>1.026107072186515</v>
+        <v>0.978583317520352</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028025517099016</v>
+        <v>1.034281038114865</v>
       </c>
       <c r="J20">
-        <v>1.021810002572841</v>
+        <v>1.000954521501792</v>
       </c>
       <c r="K20">
-        <v>1.025234970012026</v>
+        <v>1.011265588853014</v>
       </c>
       <c r="L20">
-        <v>1.022690345202327</v>
+        <v>0.9967274573810968</v>
       </c>
       <c r="M20">
-        <v>1.029515540976652</v>
+        <v>0.9930135055326669</v>
       </c>
       <c r="N20">
-        <v>1.01134231317212</v>
+        <v>1.004206575189109</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014446468116473</v>
+        <v>0.966908389025905</v>
       </c>
       <c r="D21">
-        <v>1.021088191964375</v>
+        <v>0.9934912104974027</v>
       </c>
       <c r="E21">
-        <v>1.018294858080787</v>
+        <v>0.9776746776795541</v>
       </c>
       <c r="F21">
-        <v>1.024829096143763</v>
+        <v>0.972230103756933</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027862699389612</v>
+        <v>1.033024711644011</v>
       </c>
       <c r="J21">
-        <v>1.021191336478893</v>
+        <v>0.9978579050779951</v>
       </c>
       <c r="K21">
-        <v>1.024724724488154</v>
+        <v>1.008596952087782</v>
       </c>
       <c r="L21">
-        <v>1.021942158391663</v>
+        <v>0.9930917243138767</v>
       </c>
       <c r="M21">
-        <v>1.028451310133043</v>
+        <v>0.9877574017987947</v>
       </c>
       <c r="N21">
-        <v>1.011134455471813</v>
+        <v>1.003155440429308</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.013801919980789</v>
+        <v>0.9634296308313549</v>
       </c>
       <c r="D22">
-        <v>1.020633898474192</v>
+        <v>0.9911265329813294</v>
       </c>
       <c r="E22">
-        <v>1.017690664845527</v>
+        <v>0.9746623222886101</v>
       </c>
       <c r="F22">
-        <v>1.024026203361818</v>
+        <v>0.968138968055544</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027758982609574</v>
+        <v>1.032205559503263</v>
       </c>
       <c r="J22">
-        <v>1.020802225015253</v>
+        <v>0.9958632895125307</v>
       </c>
       <c r="K22">
-        <v>1.024403398177786</v>
+        <v>1.006875848588442</v>
       </c>
       <c r="L22">
-        <v>1.021471961501943</v>
+        <v>0.9907530073416514</v>
       </c>
       <c r="M22">
-        <v>1.027782199740119</v>
+        <v>0.9843691705117001</v>
       </c>
       <c r="N22">
-        <v>1.011003654770887</v>
+        <v>1.002478213131442</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01414355912626</v>
+        <v>0.9652816965823128</v>
       </c>
       <c r="D23">
-        <v>1.020874705959711</v>
+        <v>0.9923849617134681</v>
       </c>
       <c r="E23">
-        <v>1.018010873102266</v>
+        <v>0.9762652910874894</v>
       </c>
       <c r="F23">
-        <v>1.02445177307756</v>
+        <v>0.9703172493754271</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027814092354441</v>
+        <v>1.032642641143714</v>
       </c>
       <c r="J23">
-        <v>1.021008512567557</v>
+        <v>0.9969253275691655</v>
       </c>
       <c r="K23">
-        <v>1.024573787829042</v>
+        <v>1.007792449990301</v>
       </c>
       <c r="L23">
-        <v>1.021721200799067</v>
+        <v>0.9919979658000537</v>
       </c>
       <c r="M23">
-        <v>1.028136906437324</v>
+        <v>0.9861735247514219</v>
       </c>
       <c r="N23">
-        <v>1.011073005234716</v>
+        <v>1.002838818175417</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.015489620824526</v>
+        <v>0.9724022473305779</v>
       </c>
       <c r="D24">
-        <v>1.021823224760051</v>
+        <v>0.9972337521098863</v>
       </c>
       <c r="E24">
-        <v>1.019273403627275</v>
+        <v>0.9824449715030972</v>
       </c>
       <c r="F24">
-        <v>1.026128508154348</v>
+        <v>0.978688264369539</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028028223895855</v>
+        <v>1.034301617954033</v>
       </c>
       <c r="J24">
-        <v>1.021820372303858</v>
+        <v>1.001005658770498</v>
       </c>
       <c r="K24">
-        <v>1.02524351555604</v>
+        <v>1.011309620936259</v>
       </c>
       <c r="L24">
-        <v>1.022702892275925</v>
+        <v>0.9967875499945255</v>
       </c>
       <c r="M24">
-        <v>1.029533383165667</v>
+        <v>0.9931002680918658</v>
       </c>
       <c r="N24">
-        <v>1.011345796006077</v>
+        <v>1.004223930491787</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017053816016172</v>
+        <v>0.9803385530722722</v>
       </c>
       <c r="D25">
-        <v>1.022924877016122</v>
+        <v>1.002656505613019</v>
       </c>
       <c r="E25">
-        <v>1.020742391562212</v>
+        <v>0.9893648844098849</v>
       </c>
       <c r="F25">
-        <v>1.028076969013483</v>
+        <v>0.988013168266123</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028270832432268</v>
+        <v>1.036105171686824</v>
       </c>
       <c r="J25">
-        <v>1.022761890914793</v>
+        <v>1.005546216947159</v>
       </c>
       <c r="K25">
-        <v>1.026018426612706</v>
+        <v>1.015213722252553</v>
       </c>
       <c r="L25">
-        <v>1.023843006918991</v>
+        <v>1.002130571306177</v>
       </c>
       <c r="M25">
-        <v>1.031153969048173</v>
+        <v>1.000800458807804</v>
       </c>
       <c r="N25">
-        <v>1.011661854495625</v>
+        <v>1.005764437763566</v>
       </c>
     </row>
   </sheetData>
